--- a/test2.xlsx
+++ b/test2.xlsx
@@ -28,52 +28,52 @@
     <t>vetle syversen</t>
   </si>
   <si>
+    <t>Vetle Ruud</t>
+  </si>
+  <si>
+    <t>Mathias Haugen</t>
+  </si>
+  <si>
     <t>Ola Eikill Veflen</t>
   </si>
   <si>
-    <t>Vetle Ruud</t>
+    <t>Mathias Hangeland</t>
+  </si>
+  <si>
+    <t>Pål Strømberg</t>
+  </si>
+  <si>
+    <t>Vebjørn Veflen</t>
+  </si>
+  <si>
+    <t>Magnus Buvik</t>
   </si>
   <si>
     <t>joakim paulsen</t>
   </si>
   <si>
-    <t>Vebjørn Veflen</t>
-  </si>
-  <si>
-    <t>Mathias Haugen</t>
-  </si>
-  <si>
-    <t>Mathias Hangeland</t>
+    <t>Tomas Kvamsø</t>
+  </si>
+  <si>
+    <t>Emil Andersen</t>
   </si>
   <si>
     <t>Eirik Tytingvåg</t>
   </si>
   <si>
-    <t>Pål Strømberg</t>
-  </si>
-  <si>
-    <t>Emil Andersen</t>
-  </si>
-  <si>
-    <t>Magnus Buvik</t>
+    <t>Morten Bergseng</t>
+  </si>
+  <si>
+    <t>Andreas Wallin-Wangsmo</t>
   </si>
   <si>
     <t>Markus Dyrstad</t>
   </si>
   <si>
-    <t>Tomas Kvamsø</t>
-  </si>
-  <si>
-    <t>Morten Bergseng</t>
-  </si>
-  <si>
     <t>Martin Seem</t>
   </si>
   <si>
     <t>Lars Gamre</t>
-  </si>
-  <si>
-    <t>Andreas Wallin-Wangsmo</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -441,10 +441,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -452,10 +452,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -463,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -474,10 +474,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -485,10 +485,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -496,10 +496,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -518,10 +518,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E10">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -529,10 +529,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -540,10 +540,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -551,10 +551,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E13">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -584,10 +584,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E16">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -595,10 +595,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -606,10 +606,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E18">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
